--- a/rhla_analysis/rhla1_6_normal_result/k10.xlsx
+++ b/rhla_analysis/rhla1_6_normal_result/k10.xlsx
@@ -457,35 +457,35 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.01704493373232137</v>
+        <v>0.01704493373232133</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9985677080383661</v>
+        <v>0.9985677080383659</v>
       </c>
       <c r="C2" t="n">
         <v>0.2376103190767142</v>
       </c>
       <c r="D2" t="n">
-        <v>58.58442888192855</v>
+        <v>58.58442888192865</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.007645567598540061</v>
+        <v>0.007645567598540057</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9806130544814864</v>
+        <v>0.9806130544814865</v>
       </c>
       <c r="C3" t="n">
         <v>0.2372708757637474</v>
       </c>
       <c r="D3" t="n">
-        <v>128.2590261406801</v>
+        <v>128.2590261406802</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.01380252668863506</v>
+        <v>0.01380252668863504</v>
       </c>
       <c r="B4" t="n">
         <v>1.004303784660095</v>
@@ -494,12 +494,12 @@
         <v>0.2287847929395791</v>
       </c>
       <c r="D4" t="n">
-        <v>72.76231427156266</v>
+        <v>72.76231427156277</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.008286486797279205</v>
+        <v>0.008286486797279237</v>
       </c>
       <c r="B5" t="n">
         <v>0.9943477972612395</v>
@@ -508,7 +508,7 @@
         <v>0.2236931432450781</v>
       </c>
       <c r="D5" t="n">
-        <v>119.9963050188802</v>
+        <v>119.9963050188798</v>
       </c>
     </row>
     <row r="6">
@@ -527,21 +527,21 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.01184070906366448</v>
+        <v>0.01184070906366444</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9972416839094266</v>
+        <v>0.9972416839094267</v>
       </c>
       <c r="C7" t="n">
         <v>0.225050916496945</v>
       </c>
       <c r="D7" t="n">
-        <v>84.22144979219674</v>
+        <v>84.22144979219701</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.008300783615635542</v>
+        <v>0.008300783615635502</v>
       </c>
       <c r="B8" t="n">
         <v>1.003623010719535</v>
@@ -550,12 +550,12 @@
         <v>0.2338764426340801</v>
       </c>
       <c r="D8" t="n">
-        <v>120.9070200106275</v>
+        <v>120.9070200106281</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.004354658465373349</v>
+        <v>0.004354658465373367</v>
       </c>
       <c r="B9" t="n">
         <v>1.017580115133478</v>
@@ -564,12 +564,12 @@
         <v>0.2308214528173795</v>
       </c>
       <c r="D9" t="n">
-        <v>233.6762166826407</v>
+        <v>233.6762166826397</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.006090280859873811</v>
+        <v>0.00609028085987385</v>
       </c>
       <c r="B10" t="n">
         <v>1.013703174068683</v>
@@ -578,12 +578,12 @@
         <v>0.2399864222674813</v>
       </c>
       <c r="D10" t="n">
-        <v>166.4460469709252</v>
+        <v>166.4460469709241</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.01672809568466894</v>
+        <v>0.01672809568466889</v>
       </c>
       <c r="B11" t="n">
         <v>1.019558867880577</v>
@@ -592,7 +592,7 @@
         <v>0.2396469789545146</v>
       </c>
       <c r="D11" t="n">
-        <v>60.94889024427258</v>
+        <v>60.94889024427276</v>
       </c>
     </row>
   </sheetData>
